--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB30FD-2534-44E9-95C2-486307128647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A41099-0F0A-4E36-890C-554C32973A2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="2004" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1606,10 +1606,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="9">
         <v>3</v>

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A41099-0F0A-4E36-890C-554C32973A2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B2A7A-CD34-4B16-8435-8D97C421A2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5436" yWindow="2004" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal_CIL.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B2A7A-CD34-4B16-8435-8D97C421A2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId2"/>
-    <sheet name="outputs" sheetId="3" r:id="rId3"/>
+    <sheet name="inputs" sheetId="1" r:id="rId4"/>
+    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId5"/>
+    <sheet name="outputs" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Register</t>
   </si>
@@ -160,10 +144,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -324,61 +321,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,85 +418,29 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFB6D7A8"/>
-      <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffd9ead3"/>
+      <rgbColor rgb="ffb6d7a8"/>
+      <rgbColor rgb="ffb7b7b7"/>
+      <rgbColor rgb="fffce5cd"/>
+      <rgbColor rgb="ffcccccc"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,7 +642,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -686,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +769,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +821,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,15 +912,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -962,7 +931,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -981,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,15 +1197,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1250,7 +1213,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1269,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1429,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1455,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1481,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1507,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1520,68 +1483,59 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="256" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="5">
@@ -1597,12 +1551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.55" customHeight="1">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A18" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s" s="7">
         <v>7</v>
       </c>
       <c r="C3" s="8">
@@ -1618,12 +1572,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.55" customHeight="1">
       <c r="A4" s="6">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s" s="7">
         <v>8</v>
       </c>
       <c r="C4" s="8">
@@ -1639,12 +1593,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.55" customHeight="1">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s" s="11">
         <v>9</v>
       </c>
       <c r="C5" s="8">
@@ -1660,12 +1614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.55" customHeight="1">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s" s="11">
         <v>10</v>
       </c>
       <c r="C6" s="8">
@@ -1681,12 +1635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.55" customHeight="1">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s" s="11">
         <v>11</v>
       </c>
       <c r="C7" s="8">
@@ -1702,12 +1656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.55" customHeight="1">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s" s="11">
         <v>12</v>
       </c>
       <c r="C8" s="8">
@@ -1723,12 +1677,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.55" customHeight="1">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s" s="11">
         <v>13</v>
       </c>
       <c r="C9" s="8">
@@ -1744,12 +1698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.55" customHeight="1">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C10" s="8">
@@ -1765,12 +1719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.65" customHeight="1">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s" s="13">
         <v>15</v>
       </c>
       <c r="C11" s="14">
@@ -1786,154 +1740,154 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.65" customHeight="1">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s" s="4">
         <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" ht="13.65" customHeight="1">
       <c r="A13" s="15">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="15">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="15">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="13.65" customHeight="1">
       <c r="A16" s="15">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="13.65" customHeight="1">
       <c r="A17" s="15">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="15">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1941,7 +1895,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1949,7 +1903,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -1957,7 +1911,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -1967,7 +1921,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1975,138 +1929,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="256" width="14.44140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="21" customWidth="1"/>
+    <col min="3" max="5" width="14.5" style="21" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="13.65" customHeight="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>25</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="13.65" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="4">
         <v>31</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>27</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" t="s" s="22">
         <v>32</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="18"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>30</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2117,7 +2072,7 @@
     <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2125,111 +2080,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="54" style="23" customWidth="1"/>
-    <col min="4" max="256" width="14.44140625" style="23" customWidth="1"/>
+    <col min="1" max="2" width="14.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="54" style="24" customWidth="1"/>
+    <col min="4" max="5" width="14.5" style="24" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s" s="4">
         <v>36</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" t="s" s="26">
         <v>37</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" t="s" s="26">
         <v>38</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" t="s" s="26">
         <v>39</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" t="s" s="26">
         <v>40</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2238,7 +2194,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
